--- a/data/georgia_census/samegrelo/chxorowyu/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/chxorowyu/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A617747-D47E-4165-A3DC-BF6E52E2EF4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EFAC42-C976-40B3-B4E4-504E6A66C673}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DA50D2-667F-4D29-950E-38AE65CFFD53}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2736784-F0CB-400D-8882-1C83FEC05763}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{576556EA-B7CF-44EE-8E50-46FD9508CC3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C984B770-745A-44D4-B766-D8B251CD47C4}"/>
 </file>